--- a/Save_Excel.xlsx
+++ b/Save_Excel.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.60625</v>
+        <v>0.60938</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.62875</v>
+        <v>0.6537500000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.64125</v>
+        <v>0.69062</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.66125</v>
+        <v>0.7025</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.66</v>
+        <v>0.7231300000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.67125</v>
+        <v>0.72562</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.66625</v>
+        <v>0.7375</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.66875</v>
+        <v>0.73938</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.66875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6575</v>
+        <v>0.75187</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.67375</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6775</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.67375</v>
+        <v>0.75312</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.68375</v>
+        <v>0.75062</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6725</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6775</v>
+        <v>0.75313</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6899999999999999</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6775</v>
+        <v>0.74687</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.68375</v>
+        <v>0.74375</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.68625</v>
+        <v>0.74125</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6675</v>
+        <v>0.73625</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -558,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6625</v>
+        <v>0.73875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -566,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.645</v>
+        <v>0.73813</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -574,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.65625</v>
+        <v>0.73812</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.66</v>
+        <v>0.73688</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.6575</v>
+        <v>0.73625</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -598,7 +598,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.6625</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -606,7 +606,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.66625</v>
+        <v>0.72937</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -614,7 +614,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.655</v>
+        <v>0.73875</v>
       </c>
     </row>
   </sheetData>

--- a/Save_Excel.xlsx
+++ b/Save_Excel.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.60938</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6537500000000001</v>
+        <v>0.66125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.69062</v>
+        <v>0.69125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7025</v>
+        <v>0.70563</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7231300000000001</v>
+        <v>0.7093699999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.72562</v>
+        <v>0.7175</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7375</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.73938</v>
+        <v>0.73375</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.75187</v>
+        <v>0.74375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.755</v>
+        <v>0.7456199999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.74687</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.75312</v>
+        <v>0.74312</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.75062</v>
+        <v>0.74438</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.75</v>
+        <v>0.74437</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.75313</v>
+        <v>0.74375</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.755</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.75</v>
+        <v>0.74187</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.74687</v>
+        <v>0.7475000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.74375</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.74125</v>
+        <v>0.7375</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.73625</v>
+        <v>0.7375</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -558,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.73875</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -566,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.73813</v>
+        <v>0.7325</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -574,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.73812</v>
+        <v>0.73688</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.73688</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.73625</v>
+        <v>0.73187</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -598,7 +598,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.74</v>
+        <v>0.72687</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -606,7 +606,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.72937</v>
+        <v>0.7275</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -614,7 +614,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.73875</v>
+        <v>0.7356200000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Save_Excel.xlsx
+++ b/Save_Excel.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.605</v>
+        <v>0.61625</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.66125</v>
+        <v>0.65687</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.69125</v>
+        <v>0.68875</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.70563</v>
+        <v>0.70562</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7093699999999999</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7175</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.73</v>
+        <v>0.7456199999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.73375</v>
+        <v>0.74812</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.735</v>
+        <v>0.7524999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.74375</v>
+        <v>0.7524999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7456199999999999</v>
+        <v>0.7524999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.74687</v>
+        <v>0.7575</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.74312</v>
+        <v>0.75187</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.74438</v>
+        <v>0.7475000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.74437</v>
+        <v>0.7456199999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.74375</v>
+        <v>0.7456199999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.735</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.74187</v>
+        <v>0.75062</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7475000000000001</v>
+        <v>0.75063</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.74</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7375</v>
+        <v>0.74937</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7375</v>
+        <v>0.74438</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -558,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.735</v>
+        <v>0.7475000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -566,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7325</v>
+        <v>0.74437</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -574,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.73688</v>
+        <v>0.74938</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.735</v>
+        <v>0.7456199999999999</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.73187</v>
+        <v>0.7456199999999999</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -598,7 +598,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.72687</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -606,7 +606,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.7275</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -614,7 +614,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.7356200000000001</v>
+        <v>0.74875</v>
       </c>
     </row>
   </sheetData>
